--- a/powerbi/visualizaciones_html.xlsx
+++ b/powerbi/visualizaciones_html.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guard\Documents\GitHub\data\powerbi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E504D06-2948-48A9-B56B-C94FFE5A12EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522F07EC-8BF7-4030-A73F-264536F14E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="21181" windowHeight="11402" xr2:uid="{97BF9498-9A8D-4A8C-BFD5-C12894349A2F}"/>
   </bookViews>
@@ -104,12 +104,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -125,9 +131,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -446,7 +453,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -465,7 +472,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -490,7 +497,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -498,7 +505,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
